--- a/model/Outputs/9. No PV w Bat/Summary.xlsx
+++ b/model/Outputs/9. No PV w Bat/Summary.xlsx
@@ -842,37 +842,34 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.00390625</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0195159912109375</v>
+        <v>0.0078125</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.03506475687026978</v>
+        <v>0.023406982421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.05055278516374528</v>
+        <v>0.03894054889678955</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.0659803133466994</v>
+        <v>0.05441343737766147</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.08134757774768886</v>
+        <v>0.08523833239814849</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.111962049796535</v>
+        <v>0.115822407926288</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1271496980395173</v>
+        <v>0.1461675453643638</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.1422780195315504</v>
+        <v>0.1762756114162047</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.1724164725039602</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.202319468812523</v>
+        <v>0.2061484582020156</v>
       </c>
     </row>
     <row r="4">
@@ -998,9 +995,6 @@
       <c r="AN4" t="n">
         <v>2894072.39878395</v>
       </c>
-      <c r="AO4" t="n">
-        <v>2894072.39878395</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1096,37 +1090,34 @@
         <v>2894072.39878395</v>
       </c>
       <c r="AE5" t="n">
-        <v>2939849.187999835</v>
+        <v>2894072.39878395</v>
       </c>
       <c r="AF5" t="n">
-        <v>2951496.554081913</v>
+        <v>2950148.078975106</v>
       </c>
       <c r="AG5" t="n">
-        <v>2967471.911637195</v>
+        <v>2972825.355394651</v>
       </c>
       <c r="AH5" t="n">
-        <v>2987600.714899626</v>
+        <v>3000802.858116127</v>
       </c>
       <c r="AI5" t="n">
-        <v>3021844.466123197</v>
+        <v>3030806.613135794</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3064449.835875836</v>
+        <v>2930361.364508314</v>
       </c>
       <c r="AK5" t="n">
-        <v>2937668.779302168</v>
+        <v>2906934.958401882</v>
       </c>
       <c r="AL5" t="n">
-        <v>2986815.418123721</v>
+        <v>2917632.769004504</v>
       </c>
       <c r="AM5" t="n">
-        <v>3039928.540620839</v>
+        <v>2938624.679356593</v>
       </c>
       <c r="AN5" t="n">
-        <v>2973459.001314313</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>2954561.047118433</v>
+        <v>2976252.755082447</v>
       </c>
     </row>
   </sheetData>
@@ -1551,67 +1542,67 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.00390625</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0195159912109375</v>
+        <v>0.0078125</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.03506475687026978</v>
+        <v>0.023406982421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.05055278516374528</v>
+        <v>0.03894054889678955</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.0659803133466994</v>
+        <v>0.05441343737766147</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.08134757774768886</v>
+        <v>0.08523833239814849</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.111962049796535</v>
+        <v>0.115822407926288</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1271496980395173</v>
+        <v>0.1461675453643638</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.1422780195315504</v>
+        <v>0.1762756114162047</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.1724164725039602</v>
+        <v>0.2061484582020156</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.202319468812523</v>
+        <v>0.2654273885426092</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.2616582271123273</v>
+        <v>0.3821327826506526</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.3784814075150671</v>
+        <v>0.4951911331928197</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.4916538635302212</v>
+        <v>0.604716410280544</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.6012896802949018</v>
+        <v>0.6577677163699105</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.8137090752764704</v>
+        <v>0.7622124752333508</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.9132806666740808</v>
+        <v>0.8633933353823086</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.009740645840516</v>
+        <v>0.9614122936516114</v>
       </c>
       <c r="AW3" t="n">
-        <v>1.196631855475484</v>
+        <v>1.056368159474999</v>
       </c>
       <c r="AX3" t="n">
-        <v>1.284237109991875</v>
+        <v>1.148356654491405</v>
       </c>
       <c r="AY3" t="n">
-        <v>1.453972290617383</v>
+        <v>1.237470509038548</v>
       </c>
     </row>
     <row r="4">
@@ -1865,67 +1856,67 @@
         <v>2894072.39878395</v>
       </c>
       <c r="AE5" t="n">
-        <v>2939849.187999834</v>
+        <v>2894072.39878395</v>
       </c>
       <c r="AF5" t="n">
-        <v>2951496.554081961</v>
+        <v>2950148.078975446</v>
       </c>
       <c r="AG5" t="n">
-        <v>2967471.911637235</v>
+        <v>2972825.355394651</v>
       </c>
       <c r="AH5" t="n">
-        <v>2987600.714899688</v>
+        <v>3000774.122526577</v>
       </c>
       <c r="AI5" t="n">
-        <v>3021844.466124699</v>
+        <v>3030871.471402259</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3064449.835875901</v>
+        <v>2930361.364508313</v>
       </c>
       <c r="AK5" t="n">
-        <v>2937668.779302239</v>
+        <v>2906934.958401883</v>
       </c>
       <c r="AL5" t="n">
-        <v>2986815.418123826</v>
+        <v>2917374.617016899</v>
       </c>
       <c r="AM5" t="n">
-        <v>3039928.540620922</v>
+        <v>2938624.679356592</v>
       </c>
       <c r="AN5" t="n">
-        <v>2973459.001314354</v>
+        <v>2976252.755082543</v>
       </c>
       <c r="AO5" t="n">
-        <v>2954561.047118412</v>
+        <v>3003709.458178882</v>
       </c>
       <c r="AP5" t="n">
-        <v>2951561.487516714</v>
+        <v>2961629.916259443</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2977307.592779865</v>
+        <v>2928489.942587535</v>
       </c>
       <c r="AR5" t="n">
-        <v>3009152.77021045</v>
+        <v>2904382.821540301</v>
       </c>
       <c r="AS5" t="n">
-        <v>3046895.064972366</v>
+        <v>3020827.515983076</v>
       </c>
       <c r="AT5" t="n">
-        <v>2914549.967934151</v>
+        <v>3009301.738433683</v>
       </c>
       <c r="AU5" t="n">
-        <v>2968991.735412689</v>
+        <v>3006011.52833648</v>
       </c>
       <c r="AV5" t="n">
-        <v>3028543.095647078</v>
+        <v>3010502.279019505</v>
       </c>
       <c r="AW5" t="n">
-        <v>2938678.354776962</v>
+        <v>3022532.09261542</v>
       </c>
       <c r="AX5" t="n">
-        <v>3012884.485781614</v>
+        <v>3042068.387923657</v>
       </c>
       <c r="AY5" t="n">
-        <v>2951375.741579725</v>
+        <v>3068750.096043968</v>
       </c>
     </row>
   </sheetData>
@@ -2350,67 +2341,67 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.00390625</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0195159912109375</v>
+        <v>0.0078125</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.03506475687026978</v>
+        <v>0.023406982421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.05055278516374528</v>
+        <v>0.03894054889678955</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.0659803133466994</v>
+        <v>0.05441343737766147</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.08134757774768886</v>
+        <v>0.08523833239814849</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.111962049796535</v>
+        <v>0.115822407926288</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1271496980395173</v>
+        <v>0.1461675453643638</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.1422780195315504</v>
+        <v>0.1762756114162047</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.1724164725039602</v>
+        <v>0.2061484582020156</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.202319468812523</v>
+        <v>0.2663536218291809</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.2319888479624252</v>
+        <v>0.2955227341586405</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.2908640222130123</v>
+        <v>0.3534051914374118</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.348819271865934</v>
+        <v>0.4103832353212022</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.4058689707430287</v>
+        <v>0.466525770474336</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.4620272680751689</v>
+        <v>0.4941310378925052</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.5173080920114944</v>
+        <v>0.5489102404254349</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.5717251530738148</v>
+        <v>0.6028335179187875</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.6252919475570364</v>
+        <v>0.6559142442013064</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.730751574195879</v>
+        <v>0.708165584135661</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.7818335808490684</v>
+        <v>0.7596004968835413</v>
       </c>
     </row>
     <row r="4">
@@ -2664,67 +2655,67 @@
         <v>2894072.39878395</v>
       </c>
       <c r="AE5" t="n">
-        <v>2939849.187999863</v>
+        <v>2894072.39878395</v>
       </c>
       <c r="AF5" t="n">
-        <v>2951496.554081948</v>
+        <v>2950148.078975107</v>
       </c>
       <c r="AG5" t="n">
-        <v>2967471.911637232</v>
+        <v>2972795.243541195</v>
       </c>
       <c r="AH5" t="n">
-        <v>2987600.714899677</v>
+        <v>3000774.122526577</v>
       </c>
       <c r="AI5" t="n">
-        <v>3021844.466123276</v>
+        <v>3030762.87258353</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3064449.835875886</v>
+        <v>2930361.364508315</v>
       </c>
       <c r="AK5" t="n">
-        <v>2937668.779302217</v>
+        <v>2906934.958401883</v>
       </c>
       <c r="AL5" t="n">
-        <v>2986815.418123742</v>
+        <v>2917374.617016899</v>
       </c>
       <c r="AM5" t="n">
-        <v>3039928.540620876</v>
+        <v>2938734.679636444</v>
       </c>
       <c r="AN5" t="n">
-        <v>2973459.001314334</v>
+        <v>2976252.755082536</v>
       </c>
       <c r="AO5" t="n">
-        <v>2954561.0471184</v>
+        <v>2897018.299069974</v>
       </c>
       <c r="AP5" t="n">
-        <v>2985425.22638527</v>
+        <v>3000436.022610443</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2986084.736342044</v>
+        <v>2960693.335558525</v>
       </c>
       <c r="AR5" t="n">
-        <v>2991251.916378634</v>
+        <v>2925315.429479192</v>
       </c>
       <c r="AS5" t="n">
-        <v>2999793.914067952</v>
+        <v>2894255.439440307</v>
       </c>
       <c r="AT5" t="n">
-        <v>3013930.832479168</v>
+        <v>3005566.742528127</v>
       </c>
       <c r="AU5" t="n">
-        <v>3032405.777040127</v>
+        <v>2981130.734655451</v>
       </c>
       <c r="AV5" t="n">
-        <v>3054683.088099262</v>
+        <v>2961143.343801992</v>
       </c>
       <c r="AW5" t="n">
-        <v>3080269.30910648</v>
+        <v>2945378.304818385</v>
       </c>
       <c r="AX5" t="n">
-        <v>2916173.296560129</v>
+        <v>2933709.080115949</v>
       </c>
       <c r="AY5" t="n">
-        <v>2951011.090996243</v>
+        <v>2926107.971825808</v>
       </c>
     </row>
   </sheetData>
@@ -3149,67 +3140,67 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.00390625</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0195159912109375</v>
+        <v>0.0078125</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.03506475687026978</v>
+        <v>0.023406982421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.05055278516374528</v>
+        <v>0.03894054889678955</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.0659803133466994</v>
+        <v>0.05441343737766147</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.08134757774768886</v>
+        <v>0.08523833239814849</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.111962049796535</v>
+        <v>0.1167781602865423</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1271496980395173</v>
+        <v>0.148063883116265</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.1422780195315504</v>
+        <v>0.1781571340294192</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.1724164725039602</v>
+        <v>0.2080152814198143</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.202319468812523</v>
+        <v>0.237640162033722</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.2319888479624252</v>
+        <v>0.2670335982678336</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.2614264350877187</v>
+        <v>0.2961973982813662</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.2906340410635959</v>
+        <v>0.325133356107293</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.3196134626177866</v>
+        <v>0.3538432517627048</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.3771195022643836</v>
+        <v>0.4108144509539124</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.4054232561529431</v>
+        <v>0.438854963055835</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.4335058869642483</v>
+        <v>0.4666764086569614</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.4892323574804319</v>
+        <v>0.4942804992143289</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.5166602296876162</v>
+        <v>0.5216689328142169</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.5438738216431817</v>
+        <v>0.5760178557389948</v>
       </c>
     </row>
     <row r="4">
@@ -3463,67 +3454,67 @@
         <v>2894072.39878395</v>
       </c>
       <c r="AE5" t="n">
-        <v>2939804.880914523</v>
+        <v>2894072.39878395</v>
       </c>
       <c r="AF5" t="n">
-        <v>2951496.554081951</v>
+        <v>2950148.078975338</v>
       </c>
       <c r="AG5" t="n">
-        <v>2967471.911637227</v>
+        <v>2972699.500985478</v>
       </c>
       <c r="AH5" t="n">
-        <v>2987600.71489973</v>
+        <v>3000780.411702969</v>
       </c>
       <c r="AI5" t="n">
-        <v>3021844.466123226</v>
+        <v>3030772.914168374</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3064449.835875883</v>
+        <v>2929280.273463621</v>
       </c>
       <c r="AK5" t="n">
-        <v>2937668.779302211</v>
+        <v>2895684.378857737</v>
       </c>
       <c r="AL5" t="n">
-        <v>2986815.418123754</v>
+        <v>2895222.730390471</v>
       </c>
       <c r="AM5" t="n">
-        <v>3039928.540620874</v>
+        <v>2912629.463011965</v>
       </c>
       <c r="AN5" t="n">
-        <v>2973450.643322197</v>
+        <v>2937660.622964001</v>
       </c>
       <c r="AO5" t="n">
-        <v>2953499.023560764</v>
+        <v>2964801.522725041</v>
       </c>
       <c r="AP5" t="n">
-        <v>2962928.49843831</v>
+        <v>2993721.643798831</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2996277.171198697</v>
+        <v>3024378.288886305</v>
       </c>
       <c r="AR5" t="n">
-        <v>3032226.890161251</v>
+        <v>3056757.891393594</v>
       </c>
       <c r="AS5" t="n">
-        <v>3072331.977121355</v>
+        <v>3090846.990715885</v>
       </c>
       <c r="AT5" t="n">
-        <v>2937568.714433082</v>
+        <v>2911222.277277469</v>
       </c>
       <c r="AU5" t="n">
-        <v>2984197.137178101</v>
+        <v>2950373.298504189</v>
       </c>
       <c r="AV5" t="n">
-        <v>3033133.845876338</v>
+        <v>2991180.914837134</v>
       </c>
       <c r="AW5" t="n">
-        <v>2915414.555603657</v>
+        <v>3033632.184127042</v>
       </c>
       <c r="AX5" t="n">
-        <v>2971374.974401607</v>
+        <v>3077714.265335204</v>
       </c>
       <c r="AY5" t="n">
-        <v>3028987.779755497</v>
+        <v>2917919.37532659</v>
       </c>
     </row>
   </sheetData>
@@ -3948,67 +3939,67 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.00390625</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0195159912109375</v>
+        <v>0.0078125</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.03506475687026978</v>
+        <v>0.023406982421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.05055278516374528</v>
+        <v>0.03894054889678955</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.0659803133466994</v>
+        <v>0.05441343737766147</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.08134757774768886</v>
+        <v>0.08523833239814849</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.111962049796535</v>
+        <v>0.1005303701622182</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1271496980395173</v>
+        <v>0.1309949766453259</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.1422780195315504</v>
+        <v>0.1461082775178051</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.1724164725039602</v>
+        <v>0.1762168065996972</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.2024362773918533</v>
+        <v>0.2060901127981371</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.2172705106832914</v>
+        <v>0.2209100732950194</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.2468230848185782</v>
+        <v>0.250434213347402</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.276144779468433</v>
+        <v>0.2797276960556254</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.2906910889236345</v>
+        <v>0.2942600097429081</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.3196700647914186</v>
+        <v>0.3232111034167917</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.3484226424102356</v>
+        <v>0.351936016671348</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.3769505905164057</v>
+        <v>0.3804365165411031</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.391103127272201</v>
+        <v>0.3945754363983645</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.4192976340903869</v>
+        <v>0.4227428158015022</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.4472718713240558</v>
+        <v>0.450690137553053</v>
       </c>
     </row>
     <row r="4">
@@ -4262,67 +4253,67 @@
         <v>2894072.39878395</v>
       </c>
       <c r="AE5" t="n">
-        <v>2939804.880914523</v>
+        <v>2894072.39878395</v>
       </c>
       <c r="AF5" t="n">
-        <v>2951496.554081957</v>
+        <v>2950148.078975334</v>
       </c>
       <c r="AG5" t="n">
-        <v>2967471.911637228</v>
+        <v>2972795.243541193</v>
       </c>
       <c r="AH5" t="n">
-        <v>2987600.714899669</v>
+        <v>3000701.647342428</v>
       </c>
       <c r="AI5" t="n">
-        <v>3021844.466123239</v>
+        <v>3030919.909877364</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3063786.300708956</v>
+        <v>2913473.264860949</v>
       </c>
       <c r="AK5" t="n">
-        <v>2933983.953469132</v>
+        <v>2992861.651402359</v>
       </c>
       <c r="AL5" t="n">
-        <v>2981523.211098737</v>
+        <v>2932872.112938395</v>
       </c>
       <c r="AM5" t="n">
-        <v>3032979.314011549</v>
+        <v>3027472.060407791</v>
       </c>
       <c r="AN5" t="n">
-        <v>2944704.20395253</v>
+        <v>2971711.437061589</v>
       </c>
       <c r="AO5" t="n">
-        <v>2894348.345052263</v>
+        <v>2918940.197249269</v>
       </c>
       <c r="AP5" t="n">
-        <v>2983099.1147471</v>
+        <v>3018154.635765762</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2943170.677241069</v>
+        <v>2971606.508689836</v>
       </c>
       <c r="AR5" t="n">
-        <v>2906697.457513034</v>
+        <v>2927214.19954602</v>
       </c>
       <c r="AS5" t="n">
-        <v>3001632.948017408</v>
+        <v>3030339.27143467</v>
       </c>
       <c r="AT5" t="n">
-        <v>2968397.124931716</v>
+        <v>2989414.926566127</v>
       </c>
       <c r="AU5" t="n">
-        <v>2937317.300805759</v>
+        <v>2950908.755052758</v>
       </c>
       <c r="AV5" t="n">
-        <v>2908709.138378738</v>
+        <v>2914639.468737029</v>
       </c>
       <c r="AW5" t="n">
-        <v>3006855.215064535</v>
+        <v>3021522.097245522</v>
       </c>
       <c r="AX5" t="n">
-        <v>2981540.312262323</v>
+        <v>2988573.255659516</v>
       </c>
       <c r="AY5" t="n">
-        <v>2958597.998997737</v>
+        <v>2957817.882631454</v>
       </c>
     </row>
   </sheetData>
@@ -4747,67 +4738,67 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.00390625</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0195159912109375</v>
+        <v>0.0078125</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.03506475687026978</v>
+        <v>0.023406982421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.05055278516374528</v>
+        <v>0.03894054889678955</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.0659803133466994</v>
+        <v>0.05441343737766147</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.08134757774768886</v>
+        <v>0.06982588488790498</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.09665481377211195</v>
+        <v>0.1005303701622182</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1271496980395173</v>
+        <v>0.1157626734037721</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.1422780195315504</v>
+        <v>0.1309354754607886</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.1573472460177553</v>
+        <v>0.1616348399743443</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.1723576083379985</v>
+        <v>0.1766284538806945</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.2022610645228579</v>
+        <v>0.1915634989827231</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.2170959822395654</v>
+        <v>0.2064402040648218</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.2318729510589421</v>
+        <v>0.2360773899705654</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.2613114436287941</v>
+        <v>0.2507802126659929</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.2759156958021191</v>
+        <v>0.2654256024602664</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.2904629001153921</v>
+        <v>0.2946019649410455</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.3194436587082406</v>
+        <v>0.3090761760154945</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.3338208319164115</v>
+        <v>0.3379115183903735</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.3624628566670646</v>
+        <v>0.3522165515216611</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.3766719861332088</v>
+        <v>0.3664657056172796</v>
       </c>
     </row>
     <row r="4">
@@ -5061,67 +5052,67 @@
         <v>2894072.39878395</v>
       </c>
       <c r="AE5" t="n">
-        <v>2939849.187999867</v>
+        <v>2894072.39878395</v>
       </c>
       <c r="AF5" t="n">
-        <v>2951496.554081954</v>
+        <v>2950148.078975385</v>
       </c>
       <c r="AG5" t="n">
-        <v>2967471.911637223</v>
+        <v>2972699.500985422</v>
       </c>
       <c r="AH5" t="n">
-        <v>2987509.983738377</v>
+        <v>3000780.411702969</v>
       </c>
       <c r="AI5" t="n">
-        <v>3015892.415909695</v>
+        <v>3030772.914168374</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3047166.04834537</v>
+        <v>3075021.375256485</v>
       </c>
       <c r="AK5" t="n">
-        <v>3079334.629086686</v>
+        <v>2931116.026601693</v>
       </c>
       <c r="AL5" t="n">
-        <v>2923777.711175601</v>
+        <v>2982527.262823633</v>
       </c>
       <c r="AM5" t="n">
-        <v>2959203.653296007</v>
+        <v>3035050.058033554</v>
       </c>
       <c r="AN5" t="n">
-        <v>2999035.739531642</v>
+        <v>2894092.315898949</v>
       </c>
       <c r="AO5" t="n">
-        <v>3046897.570559587</v>
+        <v>2950747.085352385</v>
       </c>
       <c r="AP5" t="n">
-        <v>2924862.631995824</v>
+        <v>3009301.074856325</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2977110.131515483</v>
+        <v>3068444.990738907</v>
       </c>
       <c r="AR5" t="n">
-        <v>3034329.962011595</v>
+        <v>2946028.186016836</v>
       </c>
       <c r="AS5" t="n">
-        <v>2930833.353382831</v>
+        <v>3009359.617151111</v>
       </c>
       <c r="AT5" t="n">
-        <v>2991748.654817087</v>
+        <v>3073395.17004032</v>
       </c>
       <c r="AU5" t="n">
-        <v>3053548.808331412</v>
+        <v>2958504.508992654</v>
       </c>
       <c r="AV5" t="n">
-        <v>2955475.545577554</v>
+        <v>3024636.858335757</v>
       </c>
       <c r="AW5" t="n">
-        <v>3019163.316830659</v>
+        <v>2913997.8727528</v>
       </c>
       <c r="AX5" t="n">
-        <v>2925128.805763403</v>
+        <v>2982228.745942862</v>
       </c>
       <c r="AY5" t="n">
-        <v>2990773.939793487</v>
+        <v>3051225.023057161</v>
       </c>
     </row>
   </sheetData>
@@ -5546,67 +5537,67 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
         <v>0.00390625</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AG3" t="n">
         <v>0.0195159912109375</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AH3" t="n">
         <v>0.03506475687026978</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AI3" t="n">
         <v>0.05055278516374528</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AJ3" t="n">
         <v>0.0659803133466994</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AK3" t="n">
         <v>0.08134757774768886</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AL3" t="n">
         <v>0.09665481377211195</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AM3" t="n">
         <v>0.1119022559058146</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AN3" t="n">
         <v>0.1270901377186825</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AO3" t="n">
         <v>0.1422186918682189</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AP3" t="n">
         <v>0.1572881501031087</v>
       </c>
-      <c r="AP3" t="n">
-        <v>0.1873093364304282</v>
-      </c>
       <c r="AQ3" t="n">
-        <v>0.2022026593349968</v>
+        <v>0.1873679715599737</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.2170378051969695</v>
+        <v>0.2022610654210676</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.2318150012704188</v>
+        <v>0.2170959831342665</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.2465344739217063</v>
+        <v>0.2318729519501483</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.2611964486329496</v>
+        <v>0.246592198231593</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.2758011500054771</v>
+        <v>0.2612539474572509</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.3051237605797748</v>
+        <v>0.275858424224996</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.3195568708900101</v>
+        <v>0.2904058522553671</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.333933601863096</v>
+        <v>0.3194436604492299</v>
       </c>
     </row>
     <row r="4">
@@ -5860,67 +5851,67 @@
         <v>2894072.39878395</v>
       </c>
       <c r="AE5" t="n">
-        <v>2917672.763085287</v>
+        <v>2894072.39878395</v>
       </c>
       <c r="AF5" t="n">
-        <v>2925585.129674747</v>
+        <v>2926727.862880678</v>
       </c>
       <c r="AG5" t="n">
-        <v>2937097.591417164</v>
+        <v>2934658.934855927</v>
       </c>
       <c r="AH5" t="n">
-        <v>2951278.136228354</v>
+        <v>2946289.496722572</v>
       </c>
       <c r="AI5" t="n">
-        <v>2966883.98340813</v>
+        <v>2959325.031091597</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2983387.845351567</v>
+        <v>2973214.715810685</v>
       </c>
       <c r="AK5" t="n">
-        <v>3001048.488938339</v>
+        <v>2988300.039811064</v>
       </c>
       <c r="AL5" t="n">
-        <v>3019890.387377043</v>
+        <v>3004571.461088019</v>
       </c>
       <c r="AM5" t="n">
-        <v>3039510.60982262</v>
+        <v>3021830.457375152</v>
       </c>
       <c r="AN5" t="n">
-        <v>3059906.115946799</v>
+        <v>3039738.296005602</v>
       </c>
       <c r="AO5" t="n">
-        <v>3081073.877297871</v>
+        <v>3058529.961962119</v>
       </c>
       <c r="AP5" t="n">
-        <v>2907132.125694156</v>
+        <v>3078122.932979057</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2930609.259433756</v>
+        <v>2894184.406420901</v>
       </c>
       <c r="AR5" t="n">
-        <v>2954845.241028941</v>
+        <v>2916168.77227531</v>
       </c>
       <c r="AS5" t="n">
-        <v>2979859.339186079</v>
+        <v>2938941.97170617</v>
       </c>
       <c r="AT5" t="n">
-        <v>3005636.076364424</v>
+        <v>2962500.923332324</v>
       </c>
       <c r="AU5" t="n">
-        <v>3032161.820633757</v>
+        <v>2986842.557809251</v>
       </c>
       <c r="AV5" t="n">
-        <v>3059433.646185261</v>
+        <v>3011963.817782079</v>
       </c>
       <c r="AW5" t="n">
-        <v>2894980.022972116</v>
+        <v>3037861.657838695</v>
       </c>
       <c r="AX5" t="n">
-        <v>2924487.109862136</v>
+        <v>3064533.044463172</v>
       </c>
       <c r="AY5" t="n">
-        <v>2954728.632164606</v>
+        <v>2894723.591051053</v>
       </c>
     </row>
   </sheetData>
